--- a/results/I3_N5_M3_T45_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1913.568148693187</v>
+        <v>245.6893803030386</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.80887881855011</v>
+        <v>35.68938030303869</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00804315852454</v>
+        <v>8.518162933706638</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.437313033157459</v>
+        <v>8.518162933706638</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1497.680000000004</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.65</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,23 +672,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -766,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -984,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1000,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.61455744655522</v>
+        <v>33.75054662682655</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.54582726020203</v>
+        <v>37.16435621671619</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33.78831096928433</v>
+        <v>38.49249770206973</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.26609208328135</v>
+        <v>41.88462103979551</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.3565085217984</v>
+        <v>33.91429431698742</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,10 +1075,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1100,10 +1089,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1114,10 +1103,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1128,10 +1117,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1142,10 +1131,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,10 +1145,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1170,10 +1159,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1184,10 +1173,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1198,99 +1187,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1404,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1415,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1426,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1437,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0449999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1459,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.22499999999971</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1481,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.52499999999971</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1492,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>49.26499999999971</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1503,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.88999999999913</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1514,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1525,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1536,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1547,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.16999999999913</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1558,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>138.7799999999996</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -1569,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>137.25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -1580,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>134.3699999999996</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -1591,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>136.5449999999996</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -1602,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.7349999999996</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1613,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>217.3350000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1624,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>209.7150000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -1635,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>213.5050000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
@@ -1646,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>208.3850000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1657,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>217.2200000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -1668,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>47.0449999999997</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1679,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>45.22499999999971</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -1690,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>46.65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -1701,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>51.52499999999971</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -1712,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>49.26499999999971</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1723,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>217.3350000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1734,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>209.7150000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1745,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>213.5050000000006</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1756,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>208.3850000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1767,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2200000000007</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -1778,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>138.7799999999996</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1789,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>137.25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -1800,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>134.3699999999996</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -1811,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>136.5449999999996</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
@@ -1822,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>135.7349999999996</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1880,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1891,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1913,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1924,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>117.3350000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1935,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>109.7150000000007</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1946,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>113.5050000000006</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1957,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>108.3850000000007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1968,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>117.2200000000007</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1979,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>38.77999999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1990,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>37.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2001,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>34.36999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2012,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>36.54499999999965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2023,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>35.73499999999964</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2081,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2092,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2103,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2114,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2180,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2191,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2202,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2213,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2224,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2348,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2375,7 +2280,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2386,7 +2291,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2397,7 +2302,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2408,7 +2313,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2419,7 +2324,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2430,7 +2335,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2441,7 +2346,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2452,7 +2357,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2463,7 +2368,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2474,67 +2379,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
